--- a/backup/Kyiv_Sub-Districts.xlsx
+++ b/backup/Kyiv_Sub-Districts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsapin/Desktop/projects/Coursera_Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3048637-E9D6-AF43-8A38-27411F4BD9B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7890B62-A5AE-0C41-9F2F-00608396BB6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="10700" windowHeight="16600" xr2:uid="{0989A21A-7498-FF47-BFAA-A10147AE0390}"/>
   </bookViews>
@@ -1653,7 +1653,7 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
